--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>código</t>
+          <t>codigo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>preço</t>
+          <t>descricao</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>preco</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>quantidade</t>
         </is>
@@ -468,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Produto 1</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,25 +483,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>SM001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Um smartphone com câmera de alta resolução</t>
+        </is>
       </c>
       <c r="F2" t="n">
+        <v>1499.99</v>
+      </c>
+      <c r="G2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Produto 2</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -506,25 +516,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>67890</t>
+          <t>TV001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>200</v>
+          <t>987654321</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Uma TV de 55 polegadas com resolução 4K</t>
+        </is>
       </c>
       <c r="F3" t="n">
+        <v>2999.99</v>
+      </c>
+      <c r="G3" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Produto 3</t>
+          <t>Fones de Ouvido</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -534,19 +549,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>54321</t>
+          <t>FH001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C3</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>150</v>
+          <t>456789123</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fones de ouvido sem fio com cancelamento de ruído</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>199.99</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
